--- a/Parameters/technology_parameters.xlsx
+++ b/Parameters/technology_parameters.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9439714-4816-924C-A763-65DCBB656576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D03A59-1AFC-48BC-A458-9B233A3D6A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
   </bookViews>
   <sheets>
     <sheet name="Water" sheetId="6" r:id="rId1"/>
-    <sheet name="Infra" sheetId="4" r:id="rId2"/>
-    <sheet name="Global" sheetId="5" r:id="rId3"/>
+    <sheet name="Mining" sheetId="7" r:id="rId2"/>
+    <sheet name="Infra" sheetId="4" r:id="rId3"/>
+    <sheet name="Global" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>CAPEX</t>
   </si>
@@ -83,6 +82,15 @@
   </si>
   <si>
     <t>Water demand  (L/kg H2)</t>
+  </si>
+  <si>
+    <t>Mining electrical demand per kg of ore (kWh/kg)</t>
+  </si>
+  <si>
+    <t>Mining diesel demand per kg of ore (kWh/kg)</t>
+  </si>
+  <si>
+    <t>Rail construction allowed</t>
   </si>
 </sst>
 </file>
@@ -444,21 +452,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F260B15A-B8F5-44FB-9EF4-FDC040BBCD83}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -466,7 +472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -474,7 +480,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -482,7 +488,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -490,7 +496,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -504,6 +510,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9789107F-F3C2-4782-AE56-886688D465AF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <f>0.121025/3.6</f>
+        <v>3.3618055555555554E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>0.0221449999999999/3.6</f>
+        <v>6.1513888888888608E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F43247-4FF6-844F-9F39-98135821A884}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -511,13 +558,13 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -528,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -539,7 +586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -552,7 +599,7 @@
         <v>7149.7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -570,25 +617,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AA0EAD-92E5-46DC-A6CE-8D3F449C6741}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -596,19 +643,27 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Parameters/technology_parameters.xlsx
+++ b/Parameters/technology_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D03A59-1AFC-48BC-A458-9B233A3D6A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77187F8-BDBF-4CBA-BB67-8071F1DBBA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
   </bookViews>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>CAPEX</t>
-  </si>
-  <si>
-    <t>OPEX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Parameter</t>
   </si>
@@ -91,6 +85,21 @@
   </si>
   <si>
     <t>Rail construction allowed</t>
+  </si>
+  <si>
+    <t>Long rail</t>
+  </si>
+  <si>
+    <t>Short rail</t>
+  </si>
+  <si>
+    <t>OPEX (euros/km/year)</t>
+  </si>
+  <si>
+    <t>CAPEX (euros/km)</t>
+  </si>
+  <si>
+    <t>Grid construction allowed</t>
   </si>
 </sst>
 </file>
@@ -461,12 +470,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.4</v>
@@ -474,7 +483,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3.7</v>
@@ -482,7 +491,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -490,7 +499,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1.25</v>
@@ -498,7 +507,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>21</v>
@@ -524,12 +533,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <f>0.121025/3.6</f>
@@ -538,7 +547,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <f>0.0221449999999999/3.6</f>
@@ -552,32 +561,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F43247-4FF6-844F-9F39-98135821A884}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1100000</v>
@@ -588,7 +598,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f>659451*0.95</f>
@@ -601,7 +611,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f>507228*0.95</f>
@@ -610,6 +620,28 @@
       <c r="C4">
         <f>C3</f>
         <v>7149.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2000000</v>
+      </c>
+      <c r="C5">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>1000000</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AA0EAD-92E5-46DC-A6CE-8D3F449C6741}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -632,12 +664,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>33.33</v>
@@ -645,7 +677,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -653,7 +685,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -661,9 +693,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Parameters/technology_parameters.xlsx
+++ b/Parameters/technology_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77187F8-BDBF-4CBA-BB67-8071F1DBBA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41E3D0-7053-4068-A8BB-5FF592453B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
   </bookViews>
   <sheets>
     <sheet name="Water" sheetId="6" r:id="rId1"/>
@@ -461,7 +461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F260B15A-B8F5-44FB-9EF4-FDC040BBCD83}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -522,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9789107F-F3C2-4782-AE56-886688D465AF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -564,7 +566,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -624,7 +626,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>2000000</v>
@@ -635,7 +637,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>1000000</v>
@@ -653,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AA0EAD-92E5-46DC-A6CE-8D3F449C6741}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
